--- a/src/test/resources/SatelliteUserTest.xlsx
+++ b/src/test/resources/SatelliteUserTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A744131\OneDrive - Atos\Desktop\Share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D670BEA-9AB1-4627-90C3-52F3F8766E08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78D6A77-F503-4A95-990F-0A5685A47EE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>username</t>
   </si>
@@ -43,18 +43,6 @@
   </si>
   <si>
     <t>test123</t>
-  </si>
-  <si>
-    <t>writing_user</t>
-  </si>
-  <si>
-    <t>writing_user123</t>
-  </si>
-  <si>
-    <t>not_existing_user</t>
-  </si>
-  <si>
-    <t>pass123</t>
   </si>
 </sst>
 </file>
@@ -372,11 +360,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -408,22 +394,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
